--- a/xlsx/美国债务上限历史_intext.xlsx
+++ b/xlsx/美国债务上限历史_intext.xlsx
@@ -29,7 +29,7 @@
     <t>历史</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国债务上限历史</t>
+    <t>政策_政策_美国_美国债务上限历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%8D%B1%E6%9C%BA</t>
